--- a/data/trans_camb/DCD-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,9</t>
+          <t>-1,83; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,29</t>
+          <t>0,89; 7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 1,84</t>
+          <t>-8,09; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 13,07</t>
+          <t>3,49; 13,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,0</t>
+          <t>-3,42; 1,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,41</t>
+          <t>3,64; 9,41</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 123,67</t>
+          <t>-32,68; 149,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 241,87</t>
+          <t>9,99; 221,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 26,1</t>
+          <t>-59,85; 19,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,8; 158,68</t>
+          <t>23,99; 178,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 37,98</t>
+          <t>-40,03; 32,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 157,11</t>
+          <t>41,94; 173,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,6</t>
+          <t>-3,77; 2,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,75</t>
+          <t>1,28; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,59</t>
+          <t>-7,45; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,55</t>
+          <t>4,27; 14,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,88</t>
+          <t>-3,97; 1,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,51</t>
+          <t>4,03; 10,47</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 70,18</t>
+          <t>-56,73; 85,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 243,48</t>
+          <t>18,61; 240,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 23,83</t>
+          <t>-48,16; 27,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,26; 144,59</t>
+          <t>26,19; 147,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 26,81</t>
+          <t>-40,29; 26,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,6; 152,7</t>
+          <t>38,19; 148,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,83</t>
+          <t>-4,86; 1,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 6,84</t>
+          <t>-5,91; 6,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 13,91</t>
+          <t>-1,36; 14,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 26,02</t>
+          <t>12,01; 25,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,94</t>
+          <t>-3,45; 3,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 10,14</t>
+          <t>-4,94; 10,46</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 31,09</t>
+          <t>-48,39; 25,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 84,34</t>
+          <t>-62,7; 86,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 139,13</t>
+          <t>-11,36; 127,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,45; 258,05</t>
+          <t>73,94; 264,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 36,86</t>
+          <t>-29,82; 35,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 105,67</t>
+          <t>-43,89; 112,77</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,34</t>
+          <t>-3,15; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,9</t>
+          <t>5,18; 10,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,27</t>
+          <t>-5,67; 1,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 11,53</t>
+          <t>-4,64; 11,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,66</t>
+          <t>-3,23; 0,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,05</t>
+          <t>1,86; 9,75</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 17,53</t>
+          <t>-32,66; 18,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54,18; 146,56</t>
+          <t>52,57; 148,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 11,42</t>
+          <t>-36,33; 12,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 89,91</t>
+          <t>-27,91; 92,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 6,59</t>
+          <t>-28,67; 5,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,75; 102,37</t>
+          <t>21,16; 100,87</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 6,49</t>
+          <t>-0,07; 6,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,8</t>
+          <t>7,82; 16,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,53</t>
+          <t>-7,6; 0,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,39</t>
+          <t>1,71; 15,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,83</t>
+          <t>-3,67; 1,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,92</t>
+          <t>6,42; 14,79</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 121,85</t>
+          <t>-1,97; 125,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>90,09; 299,94</t>
+          <t>89,74; 306,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 3,1</t>
+          <t>-32,98; 1,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,84; 82,32</t>
+          <t>8,76; 81,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 13,64</t>
+          <t>-22,48; 13,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>41,64; 107,58</t>
+          <t>41,41; 105,88</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,53</t>
+          <t>-1,27; 1,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,3</t>
+          <t>0,61; 6,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -2,34</t>
+          <t>-8,58; -2,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,69</t>
+          <t>5,43; 12,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -1,8</t>
+          <t>-7,24; -1,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,89</t>
+          <t>3,58; 9,98</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -12,98</t>
+          <t>-43,3; -12,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,71; 74,43</t>
+          <t>27,16; 76,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,54; -12,66</t>
+          <t>-44,02; -13,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,39; 70,71</t>
+          <t>21,68; 73,23</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,28</t>
+          <t>-1,25; 1,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,26</t>
+          <t>2,68; 7,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,48</t>
+          <t>-4,96; -1,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,84</t>
+          <t>3,71; 10,81</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,54</t>
+          <t>-2,8; -0,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,77</t>
+          <t>4,65; 8,74</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 22,18</t>
+          <t>-16,43; 23,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,89; 119,82</t>
+          <t>43,41; 118,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,88; -9,83</t>
+          <t>-29,22; -10,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>23,9; 68,63</t>
+          <t>22,03; 68,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -4,86</t>
+          <t>-23,11; -5,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,05; 78,87</t>
+          <t>39,3; 78,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
